--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,20 +1025,540 @@
       <c r="K28" s="9" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="9" t="n"/>
+      <c r="C29" s="9" t="n"/>
+      <c r="D29" s="9" t="n"/>
+      <c r="E29" s="9" t="n"/>
+      <c r="F29" s="9" t="n"/>
+      <c r="G29" s="9" t="n"/>
+      <c r="H29" s="9" t="n"/>
+      <c r="I29" s="10" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+      <c r="H30" s="9" t="n"/>
+      <c r="I30" s="10" t="n"/>
+      <c r="J30" s="9" t="n"/>
+      <c r="K30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n"/>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="G31" s="9" t="n"/>
+      <c r="H31" s="9" t="n"/>
+      <c r="I31" s="10" t="n"/>
+      <c r="J31" s="9" t="n"/>
+      <c r="K31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="n"/>
+      <c r="B32" s="9" t="n"/>
+      <c r="C32" s="9" t="n"/>
+      <c r="D32" s="9" t="n"/>
+      <c r="E32" s="9" t="n"/>
+      <c r="F32" s="9" t="n"/>
+      <c r="G32" s="9" t="n"/>
+      <c r="H32" s="9" t="n"/>
+      <c r="I32" s="10" t="n"/>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="n"/>
+      <c r="B33" s="9" t="n"/>
+      <c r="C33" s="9" t="n"/>
+      <c r="D33" s="9" t="n"/>
+      <c r="E33" s="9" t="n"/>
+      <c r="F33" s="9" t="n"/>
+      <c r="G33" s="9" t="n"/>
+      <c r="H33" s="9" t="n"/>
+      <c r="I33" s="10" t="n"/>
+      <c r="J33" s="9" t="n"/>
+      <c r="K33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="n"/>
+      <c r="B34" s="9" t="n"/>
+      <c r="C34" s="9" t="n"/>
+      <c r="D34" s="9" t="n"/>
+      <c r="E34" s="9" t="n"/>
+      <c r="F34" s="9" t="n"/>
+      <c r="G34" s="9" t="n"/>
+      <c r="H34" s="9" t="n"/>
+      <c r="I34" s="10" t="n"/>
+      <c r="J34" s="9" t="n"/>
+      <c r="K34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="n"/>
+      <c r="B35" s="9" t="n"/>
+      <c r="C35" s="9" t="n"/>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="G35" s="9" t="n"/>
+      <c r="H35" s="9" t="n"/>
+      <c r="I35" s="10" t="n"/>
+      <c r="J35" s="9" t="n"/>
+      <c r="K35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n"/>
+      <c r="B36" s="9" t="n"/>
+      <c r="C36" s="9" t="n"/>
+      <c r="D36" s="9" t="n"/>
+      <c r="E36" s="9" t="n"/>
+      <c r="F36" s="9" t="n"/>
+      <c r="G36" s="9" t="n"/>
+      <c r="H36" s="9" t="n"/>
+      <c r="I36" s="10" t="n"/>
+      <c r="J36" s="9" t="n"/>
+      <c r="K36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n"/>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+      <c r="D37" s="9" t="n"/>
+      <c r="E37" s="9" t="n"/>
+      <c r="F37" s="9" t="n"/>
+      <c r="G37" s="9" t="n"/>
+      <c r="H37" s="9" t="n"/>
+      <c r="I37" s="10" t="n"/>
+      <c r="J37" s="9" t="n"/>
+      <c r="K37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n"/>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="9" t="n"/>
+      <c r="G38" s="9" t="n"/>
+      <c r="H38" s="9" t="n"/>
+      <c r="I38" s="10" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="n"/>
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="9" t="n"/>
+      <c r="G39" s="9" t="n"/>
+      <c r="H39" s="9" t="n"/>
+      <c r="I39" s="10" t="n"/>
+      <c r="J39" s="9" t="n"/>
+      <c r="K39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="n"/>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
+      <c r="H40" s="9" t="n"/>
+      <c r="I40" s="10" t="n"/>
+      <c r="J40" s="9" t="n"/>
+      <c r="K40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="n"/>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="9" t="n"/>
+      <c r="G41" s="9" t="n"/>
+      <c r="H41" s="9" t="n"/>
+      <c r="I41" s="10" t="n"/>
+      <c r="J41" s="9" t="n"/>
+      <c r="K41" s="9" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="n"/>
+      <c r="B42" s="9" t="n"/>
+      <c r="C42" s="9" t="n"/>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="9" t="n"/>
+      <c r="G42" s="9" t="n"/>
+      <c r="H42" s="9" t="n"/>
+      <c r="I42" s="10" t="n"/>
+      <c r="J42" s="9" t="n"/>
+      <c r="K42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="n"/>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+      <c r="H43" s="9" t="n"/>
+      <c r="I43" s="10" t="n"/>
+      <c r="J43" s="9" t="n"/>
+      <c r="K43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="n"/>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+      <c r="H44" s="9" t="n"/>
+      <c r="I44" s="10" t="n"/>
+      <c r="J44" s="9" t="n"/>
+      <c r="K44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="n"/>
+      <c r="B45" s="9" t="n"/>
+      <c r="C45" s="9" t="n"/>
+      <c r="D45" s="9" t="n"/>
+      <c r="E45" s="9" t="n"/>
+      <c r="F45" s="9" t="n"/>
+      <c r="G45" s="9" t="n"/>
+      <c r="H45" s="9" t="n"/>
+      <c r="I45" s="10" t="n"/>
+      <c r="J45" s="9" t="n"/>
+      <c r="K45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n"/>
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+      <c r="H46" s="9" t="n"/>
+      <c r="I46" s="10" t="n"/>
+      <c r="J46" s="9" t="n"/>
+      <c r="K46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="n"/>
+      <c r="B47" s="9" t="n"/>
+      <c r="C47" s="9" t="n"/>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="9" t="n"/>
+      <c r="G47" s="9" t="n"/>
+      <c r="H47" s="9" t="n"/>
+      <c r="I47" s="10" t="n"/>
+      <c r="J47" s="9" t="n"/>
+      <c r="K47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="n"/>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+      <c r="H48" s="9" t="n"/>
+      <c r="I48" s="10" t="n"/>
+      <c r="J48" s="9" t="n"/>
+      <c r="K48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="n"/>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+      <c r="H49" s="9" t="n"/>
+      <c r="I49" s="10" t="n"/>
+      <c r="J49" s="9" t="n"/>
+      <c r="K49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="n"/>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
+      <c r="H50" s="9" t="n"/>
+      <c r="I50" s="10" t="n"/>
+      <c r="J50" s="9" t="n"/>
+      <c r="K50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n"/>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+      <c r="H51" s="9" t="n"/>
+      <c r="I51" s="10" t="n"/>
+      <c r="J51" s="9" t="n"/>
+      <c r="K51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n"/>
+      <c r="B52" s="9" t="n"/>
+      <c r="C52" s="9" t="n"/>
+      <c r="D52" s="9" t="n"/>
+      <c r="E52" s="9" t="n"/>
+      <c r="F52" s="9" t="n"/>
+      <c r="G52" s="9" t="n"/>
+      <c r="H52" s="9" t="n"/>
+      <c r="I52" s="10" t="n"/>
+      <c r="J52" s="9" t="n"/>
+      <c r="K52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n"/>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+      <c r="H53" s="9" t="n"/>
+      <c r="I53" s="10" t="n"/>
+      <c r="J53" s="9" t="n"/>
+      <c r="K53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n"/>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+      <c r="H54" s="9" t="n"/>
+      <c r="I54" s="10" t="n"/>
+      <c r="J54" s="9" t="n"/>
+      <c r="K54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n"/>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="9" t="n"/>
+      <c r="F55" s="9" t="n"/>
+      <c r="G55" s="9" t="n"/>
+      <c r="H55" s="9" t="n"/>
+      <c r="I55" s="10" t="n"/>
+      <c r="J55" s="9" t="n"/>
+      <c r="K55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n"/>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+      <c r="H56" s="9" t="n"/>
+      <c r="I56" s="10" t="n"/>
+      <c r="J56" s="9" t="n"/>
+      <c r="K56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="n"/>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="9" t="n"/>
+      <c r="F57" s="9" t="n"/>
+      <c r="G57" s="9" t="n"/>
+      <c r="H57" s="9" t="n"/>
+      <c r="I57" s="10" t="n"/>
+      <c r="J57" s="9" t="n"/>
+      <c r="K57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="n"/>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+      <c r="F58" s="9" t="n"/>
+      <c r="G58" s="9" t="n"/>
+      <c r="H58" s="9" t="n"/>
+      <c r="I58" s="10" t="n"/>
+      <c r="J58" s="9" t="n"/>
+      <c r="K58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="n"/>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="9" t="n"/>
+      <c r="F59" s="9" t="n"/>
+      <c r="G59" s="9" t="n"/>
+      <c r="H59" s="9" t="n"/>
+      <c r="I59" s="10" t="n"/>
+      <c r="J59" s="9" t="n"/>
+      <c r="K59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="n"/>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
+      <c r="D60" s="9" t="n"/>
+      <c r="E60" s="9" t="n"/>
+      <c r="F60" s="9" t="n"/>
+      <c r="G60" s="9" t="n"/>
+      <c r="H60" s="9" t="n"/>
+      <c r="I60" s="10" t="n"/>
+      <c r="J60" s="9" t="n"/>
+      <c r="K60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n"/>
+      <c r="B61" s="9" t="n"/>
+      <c r="C61" s="9" t="n"/>
+      <c r="D61" s="9" t="n"/>
+      <c r="E61" s="9" t="n"/>
+      <c r="F61" s="9" t="n"/>
+      <c r="G61" s="9" t="n"/>
+      <c r="H61" s="9" t="n"/>
+      <c r="I61" s="10" t="n"/>
+      <c r="J61" s="9" t="n"/>
+      <c r="K61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="n"/>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="9" t="n"/>
+      <c r="H62" s="9" t="n"/>
+      <c r="I62" s="10" t="n"/>
+      <c r="J62" s="9" t="n"/>
+      <c r="K62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="n"/>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+      <c r="H63" s="9" t="n"/>
+      <c r="I63" s="10" t="n"/>
+      <c r="J63" s="9" t="n"/>
+      <c r="K63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="n"/>
+      <c r="B64" s="9" t="n"/>
+      <c r="C64" s="9" t="n"/>
+      <c r="D64" s="9" t="n"/>
+      <c r="E64" s="9" t="n"/>
+      <c r="F64" s="9" t="n"/>
+      <c r="G64" s="9" t="n"/>
+      <c r="H64" s="9" t="n"/>
+      <c r="I64" s="10" t="n"/>
+      <c r="J64" s="9" t="n"/>
+      <c r="K64" s="9" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="n"/>
+      <c r="B65" s="9" t="n"/>
+      <c r="C65" s="9" t="n"/>
+      <c r="D65" s="9" t="n"/>
+      <c r="E65" s="9" t="n"/>
+      <c r="F65" s="9" t="n"/>
+      <c r="G65" s="9" t="n"/>
+      <c r="H65" s="9" t="n"/>
+      <c r="I65" s="10" t="n"/>
+      <c r="J65" s="9" t="n"/>
+      <c r="K65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="n"/>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="9" t="n"/>
+      <c r="D66" s="9" t="n"/>
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="9" t="n"/>
+      <c r="G66" s="9" t="n"/>
+      <c r="H66" s="9" t="n"/>
+      <c r="I66" s="10" t="n"/>
+      <c r="J66" s="9" t="n"/>
+      <c r="K66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="n"/>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
+      <c r="D67" s="9" t="n"/>
+      <c r="E67" s="9" t="n"/>
+      <c r="F67" s="9" t="n"/>
+      <c r="G67" s="9" t="n"/>
+      <c r="H67" s="9" t="n"/>
+      <c r="I67" s="10" t="n"/>
+      <c r="J67" s="9" t="n"/>
+      <c r="K67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="n"/>
+      <c r="B68" s="9" t="n"/>
+      <c r="C68" s="9" t="n"/>
+      <c r="D68" s="9" t="n"/>
+      <c r="E68" s="9" t="n"/>
+      <c r="F68" s="9" t="n"/>
+      <c r="G68" s="9" t="n"/>
+      <c r="H68" s="9" t="n"/>
+      <c r="I68" s="10" t="n"/>
+      <c r="J68" s="9" t="n"/>
+      <c r="K68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="inlineStr">
         <is>
           <t>SubTotal</t>
         </is>
       </c>
-      <c r="B29" s="12" t="n"/>
-      <c r="C29" s="12" t="n"/>
-      <c r="D29" s="12" t="n"/>
-      <c r="E29" s="12" t="n"/>
-      <c r="F29" s="12" t="n"/>
-      <c r="G29" s="12" t="n"/>
-      <c r="H29" s="12" t="n"/>
-      <c r="I29" s="13" t="n"/>
-      <c r="J29" s="12" t="n"/>
+      <c r="B69" s="12" t="n"/>
+      <c r="C69" s="12" t="n"/>
+      <c r="D69" s="12" t="n"/>
+      <c r="E69" s="12" t="n"/>
+      <c r="F69" s="12" t="n"/>
+      <c r="G69" s="12" t="n"/>
+      <c r="H69" s="12" t="n"/>
+      <c r="I69" s="13" t="n"/>
+      <c r="J69" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1051,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1757,26 +2277,746 @@
       <c r="P28" s="9" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="9" t="n"/>
+      <c r="C29" s="9" t="n"/>
+      <c r="D29" s="9" t="n"/>
+      <c r="E29" s="9" t="n"/>
+      <c r="F29" s="9" t="n"/>
+      <c r="G29" s="9" t="n"/>
+      <c r="H29" s="9" t="n"/>
+      <c r="I29" s="9" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="9" t="n"/>
+      <c r="M29" s="10" t="n"/>
+      <c r="N29" s="9" t="n"/>
+      <c r="O29" s="10" t="n"/>
+      <c r="P29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+      <c r="H30" s="9" t="n"/>
+      <c r="I30" s="9" t="n"/>
+      <c r="J30" s="9" t="n"/>
+      <c r="K30" s="10" t="n"/>
+      <c r="L30" s="9" t="n"/>
+      <c r="M30" s="10" t="n"/>
+      <c r="N30" s="9" t="n"/>
+      <c r="O30" s="10" t="n"/>
+      <c r="P30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n"/>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="G31" s="9" t="n"/>
+      <c r="H31" s="9" t="n"/>
+      <c r="I31" s="9" t="n"/>
+      <c r="J31" s="9" t="n"/>
+      <c r="K31" s="10" t="n"/>
+      <c r="L31" s="9" t="n"/>
+      <c r="M31" s="10" t="n"/>
+      <c r="N31" s="9" t="n"/>
+      <c r="O31" s="10" t="n"/>
+      <c r="P31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="n"/>
+      <c r="B32" s="9" t="n"/>
+      <c r="C32" s="9" t="n"/>
+      <c r="D32" s="9" t="n"/>
+      <c r="E32" s="9" t="n"/>
+      <c r="F32" s="9" t="n"/>
+      <c r="G32" s="9" t="n"/>
+      <c r="H32" s="9" t="n"/>
+      <c r="I32" s="9" t="n"/>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="10" t="n"/>
+      <c r="L32" s="9" t="n"/>
+      <c r="M32" s="10" t="n"/>
+      <c r="N32" s="9" t="n"/>
+      <c r="O32" s="10" t="n"/>
+      <c r="P32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="n"/>
+      <c r="B33" s="9" t="n"/>
+      <c r="C33" s="9" t="n"/>
+      <c r="D33" s="9" t="n"/>
+      <c r="E33" s="9" t="n"/>
+      <c r="F33" s="9" t="n"/>
+      <c r="G33" s="9" t="n"/>
+      <c r="H33" s="9" t="n"/>
+      <c r="I33" s="9" t="n"/>
+      <c r="J33" s="9" t="n"/>
+      <c r="K33" s="10" t="n"/>
+      <c r="L33" s="9" t="n"/>
+      <c r="M33" s="10" t="n"/>
+      <c r="N33" s="9" t="n"/>
+      <c r="O33" s="10" t="n"/>
+      <c r="P33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="n"/>
+      <c r="B34" s="9" t="n"/>
+      <c r="C34" s="9" t="n"/>
+      <c r="D34" s="9" t="n"/>
+      <c r="E34" s="9" t="n"/>
+      <c r="F34" s="9" t="n"/>
+      <c r="G34" s="9" t="n"/>
+      <c r="H34" s="9" t="n"/>
+      <c r="I34" s="9" t="n"/>
+      <c r="J34" s="9" t="n"/>
+      <c r="K34" s="10" t="n"/>
+      <c r="L34" s="9" t="n"/>
+      <c r="M34" s="10" t="n"/>
+      <c r="N34" s="9" t="n"/>
+      <c r="O34" s="10" t="n"/>
+      <c r="P34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="n"/>
+      <c r="B35" s="9" t="n"/>
+      <c r="C35" s="9" t="n"/>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="G35" s="9" t="n"/>
+      <c r="H35" s="9" t="n"/>
+      <c r="I35" s="9" t="n"/>
+      <c r="J35" s="9" t="n"/>
+      <c r="K35" s="10" t="n"/>
+      <c r="L35" s="9" t="n"/>
+      <c r="M35" s="10" t="n"/>
+      <c r="N35" s="9" t="n"/>
+      <c r="O35" s="10" t="n"/>
+      <c r="P35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n"/>
+      <c r="B36" s="9" t="n"/>
+      <c r="C36" s="9" t="n"/>
+      <c r="D36" s="9" t="n"/>
+      <c r="E36" s="9" t="n"/>
+      <c r="F36" s="9" t="n"/>
+      <c r="G36" s="9" t="n"/>
+      <c r="H36" s="9" t="n"/>
+      <c r="I36" s="9" t="n"/>
+      <c r="J36" s="9" t="n"/>
+      <c r="K36" s="10" t="n"/>
+      <c r="L36" s="9" t="n"/>
+      <c r="M36" s="10" t="n"/>
+      <c r="N36" s="9" t="n"/>
+      <c r="O36" s="10" t="n"/>
+      <c r="P36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n"/>
+      <c r="B37" s="9" t="n"/>
+      <c r="C37" s="9" t="n"/>
+      <c r="D37" s="9" t="n"/>
+      <c r="E37" s="9" t="n"/>
+      <c r="F37" s="9" t="n"/>
+      <c r="G37" s="9" t="n"/>
+      <c r="H37" s="9" t="n"/>
+      <c r="I37" s="9" t="n"/>
+      <c r="J37" s="9" t="n"/>
+      <c r="K37" s="10" t="n"/>
+      <c r="L37" s="9" t="n"/>
+      <c r="M37" s="10" t="n"/>
+      <c r="N37" s="9" t="n"/>
+      <c r="O37" s="10" t="n"/>
+      <c r="P37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n"/>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="9" t="n"/>
+      <c r="F38" s="9" t="n"/>
+      <c r="G38" s="9" t="n"/>
+      <c r="H38" s="9" t="n"/>
+      <c r="I38" s="9" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="10" t="n"/>
+      <c r="L38" s="9" t="n"/>
+      <c r="M38" s="10" t="n"/>
+      <c r="N38" s="9" t="n"/>
+      <c r="O38" s="10" t="n"/>
+      <c r="P38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="n"/>
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="9" t="n"/>
+      <c r="G39" s="9" t="n"/>
+      <c r="H39" s="9" t="n"/>
+      <c r="I39" s="9" t="n"/>
+      <c r="J39" s="9" t="n"/>
+      <c r="K39" s="10" t="n"/>
+      <c r="L39" s="9" t="n"/>
+      <c r="M39" s="10" t="n"/>
+      <c r="N39" s="9" t="n"/>
+      <c r="O39" s="10" t="n"/>
+      <c r="P39" s="9" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="n"/>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
+      <c r="H40" s="9" t="n"/>
+      <c r="I40" s="9" t="n"/>
+      <c r="J40" s="9" t="n"/>
+      <c r="K40" s="10" t="n"/>
+      <c r="L40" s="9" t="n"/>
+      <c r="M40" s="10" t="n"/>
+      <c r="N40" s="9" t="n"/>
+      <c r="O40" s="10" t="n"/>
+      <c r="P40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="n"/>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
+      <c r="D41" s="9" t="n"/>
+      <c r="E41" s="9" t="n"/>
+      <c r="F41" s="9" t="n"/>
+      <c r="G41" s="9" t="n"/>
+      <c r="H41" s="9" t="n"/>
+      <c r="I41" s="9" t="n"/>
+      <c r="J41" s="9" t="n"/>
+      <c r="K41" s="10" t="n"/>
+      <c r="L41" s="9" t="n"/>
+      <c r="M41" s="10" t="n"/>
+      <c r="N41" s="9" t="n"/>
+      <c r="O41" s="10" t="n"/>
+      <c r="P41" s="9" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="n"/>
+      <c r="B42" s="9" t="n"/>
+      <c r="C42" s="9" t="n"/>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="9" t="n"/>
+      <c r="G42" s="9" t="n"/>
+      <c r="H42" s="9" t="n"/>
+      <c r="I42" s="9" t="n"/>
+      <c r="J42" s="9" t="n"/>
+      <c r="K42" s="10" t="n"/>
+      <c r="L42" s="9" t="n"/>
+      <c r="M42" s="10" t="n"/>
+      <c r="N42" s="9" t="n"/>
+      <c r="O42" s="10" t="n"/>
+      <c r="P42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="n"/>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+      <c r="H43" s="9" t="n"/>
+      <c r="I43" s="9" t="n"/>
+      <c r="J43" s="9" t="n"/>
+      <c r="K43" s="10" t="n"/>
+      <c r="L43" s="9" t="n"/>
+      <c r="M43" s="10" t="n"/>
+      <c r="N43" s="9" t="n"/>
+      <c r="O43" s="10" t="n"/>
+      <c r="P43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="n"/>
+      <c r="B44" s="9" t="n"/>
+      <c r="C44" s="9" t="n"/>
+      <c r="D44" s="9" t="n"/>
+      <c r="E44" s="9" t="n"/>
+      <c r="F44" s="9" t="n"/>
+      <c r="G44" s="9" t="n"/>
+      <c r="H44" s="9" t="n"/>
+      <c r="I44" s="9" t="n"/>
+      <c r="J44" s="9" t="n"/>
+      <c r="K44" s="10" t="n"/>
+      <c r="L44" s="9" t="n"/>
+      <c r="M44" s="10" t="n"/>
+      <c r="N44" s="9" t="n"/>
+      <c r="O44" s="10" t="n"/>
+      <c r="P44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="n"/>
+      <c r="B45" s="9" t="n"/>
+      <c r="C45" s="9" t="n"/>
+      <c r="D45" s="9" t="n"/>
+      <c r="E45" s="9" t="n"/>
+      <c r="F45" s="9" t="n"/>
+      <c r="G45" s="9" t="n"/>
+      <c r="H45" s="9" t="n"/>
+      <c r="I45" s="9" t="n"/>
+      <c r="J45" s="9" t="n"/>
+      <c r="K45" s="10" t="n"/>
+      <c r="L45" s="9" t="n"/>
+      <c r="M45" s="10" t="n"/>
+      <c r="N45" s="9" t="n"/>
+      <c r="O45" s="10" t="n"/>
+      <c r="P45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n"/>
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+      <c r="H46" s="9" t="n"/>
+      <c r="I46" s="9" t="n"/>
+      <c r="J46" s="9" t="n"/>
+      <c r="K46" s="10" t="n"/>
+      <c r="L46" s="9" t="n"/>
+      <c r="M46" s="10" t="n"/>
+      <c r="N46" s="9" t="n"/>
+      <c r="O46" s="10" t="n"/>
+      <c r="P46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="n"/>
+      <c r="B47" s="9" t="n"/>
+      <c r="C47" s="9" t="n"/>
+      <c r="D47" s="9" t="n"/>
+      <c r="E47" s="9" t="n"/>
+      <c r="F47" s="9" t="n"/>
+      <c r="G47" s="9" t="n"/>
+      <c r="H47" s="9" t="n"/>
+      <c r="I47" s="9" t="n"/>
+      <c r="J47" s="9" t="n"/>
+      <c r="K47" s="10" t="n"/>
+      <c r="L47" s="9" t="n"/>
+      <c r="M47" s="10" t="n"/>
+      <c r="N47" s="9" t="n"/>
+      <c r="O47" s="10" t="n"/>
+      <c r="P47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="n"/>
+      <c r="B48" s="9" t="n"/>
+      <c r="C48" s="9" t="n"/>
+      <c r="D48" s="9" t="n"/>
+      <c r="E48" s="9" t="n"/>
+      <c r="F48" s="9" t="n"/>
+      <c r="G48" s="9" t="n"/>
+      <c r="H48" s="9" t="n"/>
+      <c r="I48" s="9" t="n"/>
+      <c r="J48" s="9" t="n"/>
+      <c r="K48" s="10" t="n"/>
+      <c r="L48" s="9" t="n"/>
+      <c r="M48" s="10" t="n"/>
+      <c r="N48" s="9" t="n"/>
+      <c r="O48" s="10" t="n"/>
+      <c r="P48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="n"/>
+      <c r="B49" s="9" t="n"/>
+      <c r="C49" s="9" t="n"/>
+      <c r="D49" s="9" t="n"/>
+      <c r="E49" s="9" t="n"/>
+      <c r="F49" s="9" t="n"/>
+      <c r="G49" s="9" t="n"/>
+      <c r="H49" s="9" t="n"/>
+      <c r="I49" s="9" t="n"/>
+      <c r="J49" s="9" t="n"/>
+      <c r="K49" s="10" t="n"/>
+      <c r="L49" s="9" t="n"/>
+      <c r="M49" s="10" t="n"/>
+      <c r="N49" s="9" t="n"/>
+      <c r="O49" s="10" t="n"/>
+      <c r="P49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="n"/>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
+      <c r="H50" s="9" t="n"/>
+      <c r="I50" s="9" t="n"/>
+      <c r="J50" s="9" t="n"/>
+      <c r="K50" s="10" t="n"/>
+      <c r="L50" s="9" t="n"/>
+      <c r="M50" s="10" t="n"/>
+      <c r="N50" s="9" t="n"/>
+      <c r="O50" s="10" t="n"/>
+      <c r="P50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n"/>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+      <c r="H51" s="9" t="n"/>
+      <c r="I51" s="9" t="n"/>
+      <c r="J51" s="9" t="n"/>
+      <c r="K51" s="10" t="n"/>
+      <c r="L51" s="9" t="n"/>
+      <c r="M51" s="10" t="n"/>
+      <c r="N51" s="9" t="n"/>
+      <c r="O51" s="10" t="n"/>
+      <c r="P51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n"/>
+      <c r="B52" s="9" t="n"/>
+      <c r="C52" s="9" t="n"/>
+      <c r="D52" s="9" t="n"/>
+      <c r="E52" s="9" t="n"/>
+      <c r="F52" s="9" t="n"/>
+      <c r="G52" s="9" t="n"/>
+      <c r="H52" s="9" t="n"/>
+      <c r="I52" s="9" t="n"/>
+      <c r="J52" s="9" t="n"/>
+      <c r="K52" s="10" t="n"/>
+      <c r="L52" s="9" t="n"/>
+      <c r="M52" s="10" t="n"/>
+      <c r="N52" s="9" t="n"/>
+      <c r="O52" s="10" t="n"/>
+      <c r="P52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n"/>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+      <c r="H53" s="9" t="n"/>
+      <c r="I53" s="9" t="n"/>
+      <c r="J53" s="9" t="n"/>
+      <c r="K53" s="10" t="n"/>
+      <c r="L53" s="9" t="n"/>
+      <c r="M53" s="10" t="n"/>
+      <c r="N53" s="9" t="n"/>
+      <c r="O53" s="10" t="n"/>
+      <c r="P53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n"/>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+      <c r="H54" s="9" t="n"/>
+      <c r="I54" s="9" t="n"/>
+      <c r="J54" s="9" t="n"/>
+      <c r="K54" s="10" t="n"/>
+      <c r="L54" s="9" t="n"/>
+      <c r="M54" s="10" t="n"/>
+      <c r="N54" s="9" t="n"/>
+      <c r="O54" s="10" t="n"/>
+      <c r="P54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n"/>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="9" t="n"/>
+      <c r="F55" s="9" t="n"/>
+      <c r="G55" s="9" t="n"/>
+      <c r="H55" s="9" t="n"/>
+      <c r="I55" s="9" t="n"/>
+      <c r="J55" s="9" t="n"/>
+      <c r="K55" s="10" t="n"/>
+      <c r="L55" s="9" t="n"/>
+      <c r="M55" s="10" t="n"/>
+      <c r="N55" s="9" t="n"/>
+      <c r="O55" s="10" t="n"/>
+      <c r="P55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n"/>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+      <c r="H56" s="9" t="n"/>
+      <c r="I56" s="9" t="n"/>
+      <c r="J56" s="9" t="n"/>
+      <c r="K56" s="10" t="n"/>
+      <c r="L56" s="9" t="n"/>
+      <c r="M56" s="10" t="n"/>
+      <c r="N56" s="9" t="n"/>
+      <c r="O56" s="10" t="n"/>
+      <c r="P56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="n"/>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="9" t="n"/>
+      <c r="F57" s="9" t="n"/>
+      <c r="G57" s="9" t="n"/>
+      <c r="H57" s="9" t="n"/>
+      <c r="I57" s="9" t="n"/>
+      <c r="J57" s="9" t="n"/>
+      <c r="K57" s="10" t="n"/>
+      <c r="L57" s="9" t="n"/>
+      <c r="M57" s="10" t="n"/>
+      <c r="N57" s="9" t="n"/>
+      <c r="O57" s="10" t="n"/>
+      <c r="P57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="n"/>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+      <c r="F58" s="9" t="n"/>
+      <c r="G58" s="9" t="n"/>
+      <c r="H58" s="9" t="n"/>
+      <c r="I58" s="9" t="n"/>
+      <c r="J58" s="9" t="n"/>
+      <c r="K58" s="10" t="n"/>
+      <c r="L58" s="9" t="n"/>
+      <c r="M58" s="10" t="n"/>
+      <c r="N58" s="9" t="n"/>
+      <c r="O58" s="10" t="n"/>
+      <c r="P58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="n"/>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="9" t="n"/>
+      <c r="F59" s="9" t="n"/>
+      <c r="G59" s="9" t="n"/>
+      <c r="H59" s="9" t="n"/>
+      <c r="I59" s="9" t="n"/>
+      <c r="J59" s="9" t="n"/>
+      <c r="K59" s="10" t="n"/>
+      <c r="L59" s="9" t="n"/>
+      <c r="M59" s="10" t="n"/>
+      <c r="N59" s="9" t="n"/>
+      <c r="O59" s="10" t="n"/>
+      <c r="P59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="n"/>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
+      <c r="D60" s="9" t="n"/>
+      <c r="E60" s="9" t="n"/>
+      <c r="F60" s="9" t="n"/>
+      <c r="G60" s="9" t="n"/>
+      <c r="H60" s="9" t="n"/>
+      <c r="I60" s="9" t="n"/>
+      <c r="J60" s="9" t="n"/>
+      <c r="K60" s="10" t="n"/>
+      <c r="L60" s="9" t="n"/>
+      <c r="M60" s="10" t="n"/>
+      <c r="N60" s="9" t="n"/>
+      <c r="O60" s="10" t="n"/>
+      <c r="P60" s="9" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n"/>
+      <c r="B61" s="9" t="n"/>
+      <c r="C61" s="9" t="n"/>
+      <c r="D61" s="9" t="n"/>
+      <c r="E61" s="9" t="n"/>
+      <c r="F61" s="9" t="n"/>
+      <c r="G61" s="9" t="n"/>
+      <c r="H61" s="9" t="n"/>
+      <c r="I61" s="9" t="n"/>
+      <c r="J61" s="9" t="n"/>
+      <c r="K61" s="10" t="n"/>
+      <c r="L61" s="9" t="n"/>
+      <c r="M61" s="10" t="n"/>
+      <c r="N61" s="9" t="n"/>
+      <c r="O61" s="10" t="n"/>
+      <c r="P61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="n"/>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="9" t="n"/>
+      <c r="H62" s="9" t="n"/>
+      <c r="I62" s="9" t="n"/>
+      <c r="J62" s="9" t="n"/>
+      <c r="K62" s="10" t="n"/>
+      <c r="L62" s="9" t="n"/>
+      <c r="M62" s="10" t="n"/>
+      <c r="N62" s="9" t="n"/>
+      <c r="O62" s="10" t="n"/>
+      <c r="P62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="n"/>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+      <c r="H63" s="9" t="n"/>
+      <c r="I63" s="9" t="n"/>
+      <c r="J63" s="9" t="n"/>
+      <c r="K63" s="10" t="n"/>
+      <c r="L63" s="9" t="n"/>
+      <c r="M63" s="10" t="n"/>
+      <c r="N63" s="9" t="n"/>
+      <c r="O63" s="10" t="n"/>
+      <c r="P63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="n"/>
+      <c r="B64" s="9" t="n"/>
+      <c r="C64" s="9" t="n"/>
+      <c r="D64" s="9" t="n"/>
+      <c r="E64" s="9" t="n"/>
+      <c r="F64" s="9" t="n"/>
+      <c r="G64" s="9" t="n"/>
+      <c r="H64" s="9" t="n"/>
+      <c r="I64" s="9" t="n"/>
+      <c r="J64" s="9" t="n"/>
+      <c r="K64" s="10" t="n"/>
+      <c r="L64" s="9" t="n"/>
+      <c r="M64" s="10" t="n"/>
+      <c r="N64" s="9" t="n"/>
+      <c r="O64" s="10" t="n"/>
+      <c r="P64" s="9" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="n"/>
+      <c r="B65" s="9" t="n"/>
+      <c r="C65" s="9" t="n"/>
+      <c r="D65" s="9" t="n"/>
+      <c r="E65" s="9" t="n"/>
+      <c r="F65" s="9" t="n"/>
+      <c r="G65" s="9" t="n"/>
+      <c r="H65" s="9" t="n"/>
+      <c r="I65" s="9" t="n"/>
+      <c r="J65" s="9" t="n"/>
+      <c r="K65" s="10" t="n"/>
+      <c r="L65" s="9" t="n"/>
+      <c r="M65" s="10" t="n"/>
+      <c r="N65" s="9" t="n"/>
+      <c r="O65" s="10" t="n"/>
+      <c r="P65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="n"/>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="9" t="n"/>
+      <c r="D66" s="9" t="n"/>
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="9" t="n"/>
+      <c r="G66" s="9" t="n"/>
+      <c r="H66" s="9" t="n"/>
+      <c r="I66" s="9" t="n"/>
+      <c r="J66" s="9" t="n"/>
+      <c r="K66" s="10" t="n"/>
+      <c r="L66" s="9" t="n"/>
+      <c r="M66" s="10" t="n"/>
+      <c r="N66" s="9" t="n"/>
+      <c r="O66" s="10" t="n"/>
+      <c r="P66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="n"/>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
+      <c r="D67" s="9" t="n"/>
+      <c r="E67" s="9" t="n"/>
+      <c r="F67" s="9" t="n"/>
+      <c r="G67" s="9" t="n"/>
+      <c r="H67" s="9" t="n"/>
+      <c r="I67" s="9" t="n"/>
+      <c r="J67" s="9" t="n"/>
+      <c r="K67" s="10" t="n"/>
+      <c r="L67" s="9" t="n"/>
+      <c r="M67" s="10" t="n"/>
+      <c r="N67" s="9" t="n"/>
+      <c r="O67" s="10" t="n"/>
+      <c r="P67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="n"/>
+      <c r="B68" s="9" t="n"/>
+      <c r="C68" s="9" t="n"/>
+      <c r="D68" s="9" t="n"/>
+      <c r="E68" s="9" t="n"/>
+      <c r="F68" s="9" t="n"/>
+      <c r="G68" s="9" t="n"/>
+      <c r="H68" s="9" t="n"/>
+      <c r="I68" s="9" t="n"/>
+      <c r="J68" s="9" t="n"/>
+      <c r="K68" s="10" t="n"/>
+      <c r="L68" s="9" t="n"/>
+      <c r="M68" s="10" t="n"/>
+      <c r="N68" s="9" t="n"/>
+      <c r="O68" s="10" t="n"/>
+      <c r="P68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="inlineStr">
         <is>
           <t>SubTotal</t>
         </is>
       </c>
-      <c r="B29" s="12" t="n"/>
-      <c r="C29" s="12" t="n"/>
-      <c r="D29" s="12" t="n"/>
-      <c r="E29" s="12" t="n"/>
-      <c r="F29" s="12" t="n"/>
-      <c r="G29" s="12" t="n"/>
-      <c r="H29" s="12" t="n"/>
-      <c r="I29" s="12" t="n"/>
-      <c r="J29" s="12" t="n"/>
-      <c r="K29" s="13" t="n"/>
-      <c r="L29" s="12" t="n"/>
-      <c r="M29" s="13" t="n"/>
-      <c r="N29" s="12" t="n"/>
-      <c r="O29" s="13" t="n"/>
-      <c r="P29" s="12" t="n"/>
+      <c r="B69" s="12" t="n"/>
+      <c r="C69" s="12" t="n"/>
+      <c r="D69" s="12" t="n"/>
+      <c r="E69" s="12" t="n"/>
+      <c r="F69" s="12" t="n"/>
+      <c r="G69" s="12" t="n"/>
+      <c r="H69" s="12" t="n"/>
+      <c r="I69" s="12" t="n"/>
+      <c r="J69" s="12" t="n"/>
+      <c r="K69" s="13" t="n"/>
+      <c r="L69" s="12" t="n"/>
+      <c r="M69" s="13" t="n"/>
+      <c r="N69" s="12" t="n"/>
+      <c r="O69" s="13" t="n"/>
+      <c r="P69" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657141B3-9717-4063-997B-CCE2746A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C516AC-6643-40F1-9F8F-72C1D2D3F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="3420" windowWidth="36390" windowHeight="16790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1350" windowWidth="36390" windowHeight="16790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKS-BOMA-B" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,7 +787,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -811,7 +810,7 @@
     <xf numFmtId="164" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,11 +1121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="10" width="13" customWidth="1"/>
@@ -1228,7 +1227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="24" t="s">
@@ -1251,7 +1250,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="40" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
@@ -1312,805 +1311,805 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="40"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="43"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="43"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="43"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="43"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="43"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="43"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="43"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="43"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="43"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="43"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="43"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="43"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="43"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="43"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="43"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="43"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="43"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="43"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="43"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="43"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="43"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="43"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="43"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="43"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="43"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="43"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="43"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="43"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="43"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="43"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="43"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="43"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="42"/>
       <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="43"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="42"/>
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="43"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="43"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="43"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="42"/>
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="43"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="42"/>
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="43"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="42"/>
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="43"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="42"/>
       <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="43"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="42"/>
       <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="43"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="42"/>
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="43"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="42"/>
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="43"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="42"/>
       <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="43"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="43"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="42"/>
       <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="42"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="43"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="42"/>
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="42"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="43"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="42"/>
       <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="42"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="43"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="42"/>
       <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="43"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="42"/>
       <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="42"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="43"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="42"/>
       <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="43"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="42"/>
       <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="43"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="42"/>
       <c r="K66" s="21"/>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="43"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="42"/>
       <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="42"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="43"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="42"/>
       <c r="K68" s="21"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="59"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A70" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="38">
+      <c r="J70" s="60">
         <f>IF(D69=0,0,J69/D69)</f>
         <v>0</v>
       </c>
@@ -2124,11 +2123,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="15" width="12.7265625" customWidth="1"/>
@@ -2260,7 +2259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="30" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C6" s="24" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="40" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
@@ -2365,1110 +2364,1110 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="48"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="52"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="51"/>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="52"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="52"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="52"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="52"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="51"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="52"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="51"/>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="52"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="51"/>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="52"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="51"/>
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="52"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="52"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="51"/>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="52"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="52"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="51"/>
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="52"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="52"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="52"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="52"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="51"/>
       <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="52"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="52"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="51"/>
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="52"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="51"/>
       <c r="P29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="52"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="51"/>
       <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="52"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="51"/>
       <c r="P31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="52"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="51"/>
       <c r="P32" s="8"/>
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="52"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="51"/>
       <c r="P33" s="8"/>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="51"/>
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="52"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="51"/>
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="52"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="51"/>
       <c r="P36" s="8"/>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="52"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="8"/>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="52"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="51"/>
       <c r="P38" s="8"/>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="52"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="51"/>
       <c r="P39" s="8"/>
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="52"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51"/>
       <c r="P40" s="8"/>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="52"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="51"/>
       <c r="P41" s="8"/>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="52"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="51"/>
       <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="52"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="51"/>
       <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="52"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="51"/>
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="52"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="51"/>
       <c r="P45" s="8"/>
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="52"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="51"/>
       <c r="P46" s="8"/>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="52"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="51"/>
       <c r="P47" s="8"/>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="52"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="51"/>
       <c r="P48" s="8"/>
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="52"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="51"/>
       <c r="P49" s="8"/>
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="52"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="51"/>
       <c r="P50" s="8"/>
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="52"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="51"/>
       <c r="P51" s="8"/>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="52"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="51"/>
       <c r="P52" s="8"/>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="52"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="51"/>
       <c r="P53" s="8"/>
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="52"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="51"/>
       <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="52"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="51"/>
       <c r="P55" s="8"/>
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="52"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="51"/>
       <c r="P56" s="8"/>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="52"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="51"/>
       <c r="P57" s="8"/>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="52"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="51"/>
       <c r="P58" s="8"/>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="52"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="51"/>
       <c r="P59" s="8"/>
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="52"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="51"/>
       <c r="P60" s="8"/>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="52"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="51"/>
       <c r="P61" s="8"/>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="52"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="51"/>
       <c r="P62" s="8"/>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="52"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="51"/>
       <c r="P63" s="8"/>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="52"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="51"/>
       <c r="P64" s="8"/>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="52"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="51"/>
       <c r="P65" s="8"/>
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="52"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="51"/>
       <c r="P66" s="8"/>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="52"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="51"/>
       <c r="P67" s="8"/>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="52"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="51"/>
       <c r="P68" s="8"/>
     </row>
     <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.45">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="55"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="54"/>
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.45">
-      <c r="A70" s="62" t="s">
+      <c r="A70" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="N70" s="61">
+      <c r="N70" s="60">
         <f>IF(D69=0,0,N69/D69)</f>
         <v>0</v>
       </c>

--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C516AC-6643-40F1-9F8F-72C1D2D3F999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A937C3-067C-401B-8E18-5C2B1787E48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1350" windowWidth="36390" windowHeight="16790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="36390" windowHeight="16790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKS-BOMA-B" sheetId="1" r:id="rId1"/>
     <sheet name="HKS-BOMA-A" sheetId="2" r:id="rId2"/>
-    <sheet name="Revit Data" sheetId="3" r:id="rId3"/>
+    <sheet name="NON-BOMA Areas" sheetId="4" r:id="rId3"/>
+    <sheet name="Revit Data" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Project Name</t>
   </si>
@@ -362,6 +363,18 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>Summary Of Excluded BOMA Areas</t>
+  </si>
+  <si>
+    <t>BOMA Area Type</t>
+  </si>
+  <si>
+    <t>TOTALS by Level</t>
+  </si>
+  <si>
+    <t>TOTALS by Type</t>
+  </si>
 </sst>
 </file>
 
@@ -383,15 +396,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -544,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -695,12 +711,134 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,13 +924,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -811,6 +942,26 @@
     <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J69" sqref="A69:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1275,7 +1426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
         <v>30</v>
       </c>
@@ -1311,16 +1462,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1333,7 +1484,7 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="42"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1346,7 +1497,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1359,7 +1510,7 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="59"/>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1372,7 +1523,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="42"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1385,7 +1536,7 @@
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="43"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="59"/>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1398,7 +1549,7 @@
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="43"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1411,7 +1562,7 @@
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1424,7 +1575,7 @@
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="42"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1437,7 +1588,7 @@
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="42"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1450,7 +1601,7 @@
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="42"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1463,7 +1614,7 @@
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="43"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1476,7 +1627,7 @@
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="42"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1489,7 +1640,7 @@
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
       <c r="I22" s="43"/>
-      <c r="J22" s="42"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1502,7 +1653,7 @@
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="42"/>
+      <c r="J23" s="59"/>
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1515,7 +1666,7 @@
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="42"/>
+      <c r="J24" s="59"/>
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1528,7 +1679,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="42"/>
+      <c r="J25" s="59"/>
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1541,7 +1692,7 @@
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="42"/>
+      <c r="J26" s="59"/>
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1554,7 +1705,7 @@
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="42"/>
+      <c r="J27" s="59"/>
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1567,7 +1718,7 @@
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="42"/>
+      <c r="J28" s="59"/>
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1580,7 +1731,7 @@
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="43"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="59"/>
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1593,7 +1744,7 @@
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="43"/>
-      <c r="J30" s="42"/>
+      <c r="J30" s="59"/>
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1606,7 +1757,7 @@
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="43"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="59"/>
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1619,7 +1770,7 @@
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
       <c r="I32" s="43"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="59"/>
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1632,7 +1783,7 @@
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
       <c r="I33" s="43"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="59"/>
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1645,7 +1796,7 @@
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="59"/>
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1658,7 +1809,7 @@
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="42"/>
+      <c r="J35" s="59"/>
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1671,7 +1822,7 @@
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
       <c r="I36" s="43"/>
-      <c r="J36" s="42"/>
+      <c r="J36" s="59"/>
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1684,7 +1835,7 @@
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
       <c r="I37" s="43"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="59"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1697,7 +1848,7 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="43"/>
-      <c r="J38" s="42"/>
+      <c r="J38" s="59"/>
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1710,7 +1861,7 @@
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
       <c r="I39" s="43"/>
-      <c r="J39" s="42"/>
+      <c r="J39" s="59"/>
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1723,7 +1874,7 @@
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
       <c r="I40" s="43"/>
-      <c r="J40" s="42"/>
+      <c r="J40" s="59"/>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1736,7 +1887,7 @@
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
       <c r="I41" s="43"/>
-      <c r="J41" s="42"/>
+      <c r="J41" s="59"/>
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1749,7 +1900,7 @@
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
       <c r="I42" s="43"/>
-      <c r="J42" s="42"/>
+      <c r="J42" s="59"/>
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1762,7 +1913,7 @@
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
       <c r="I43" s="43"/>
-      <c r="J43" s="42"/>
+      <c r="J43" s="59"/>
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1775,7 +1926,7 @@
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
       <c r="I44" s="43"/>
-      <c r="J44" s="42"/>
+      <c r="J44" s="59"/>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1788,7 +1939,7 @@
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
       <c r="I45" s="43"/>
-      <c r="J45" s="42"/>
+      <c r="J45" s="59"/>
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1801,7 +1952,7 @@
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
       <c r="I46" s="43"/>
-      <c r="J46" s="42"/>
+      <c r="J46" s="59"/>
       <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1814,7 +1965,7 @@
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="42"/>
+      <c r="J47" s="59"/>
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1827,7 +1978,7 @@
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
       <c r="I48" s="43"/>
-      <c r="J48" s="42"/>
+      <c r="J48" s="59"/>
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1840,7 +1991,7 @@
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
       <c r="I49" s="43"/>
-      <c r="J49" s="42"/>
+      <c r="J49" s="59"/>
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1853,7 +2004,7 @@
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
       <c r="I50" s="43"/>
-      <c r="J50" s="42"/>
+      <c r="J50" s="59"/>
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1866,7 +2017,7 @@
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
       <c r="I51" s="43"/>
-      <c r="J51" s="42"/>
+      <c r="J51" s="59"/>
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1879,7 +2030,7 @@
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
       <c r="I52" s="43"/>
-      <c r="J52" s="42"/>
+      <c r="J52" s="59"/>
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1892,7 +2043,7 @@
       <c r="G53" s="42"/>
       <c r="H53" s="42"/>
       <c r="I53" s="43"/>
-      <c r="J53" s="42"/>
+      <c r="J53" s="59"/>
       <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1905,7 +2056,7 @@
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
       <c r="I54" s="43"/>
-      <c r="J54" s="42"/>
+      <c r="J54" s="59"/>
       <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1918,7 +2069,7 @@
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
       <c r="I55" s="43"/>
-      <c r="J55" s="42"/>
+      <c r="J55" s="59"/>
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1931,7 +2082,7 @@
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="43"/>
-      <c r="J56" s="42"/>
+      <c r="J56" s="59"/>
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1944,7 +2095,7 @@
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
       <c r="I57" s="43"/>
-      <c r="J57" s="42"/>
+      <c r="J57" s="59"/>
       <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1957,7 +2108,7 @@
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
       <c r="I58" s="43"/>
-      <c r="J58" s="42"/>
+      <c r="J58" s="59"/>
       <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1970,7 +2121,7 @@
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="43"/>
-      <c r="J59" s="42"/>
+      <c r="J59" s="59"/>
       <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1983,7 +2134,7 @@
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
       <c r="I60" s="43"/>
-      <c r="J60" s="42"/>
+      <c r="J60" s="59"/>
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -1996,7 +2147,7 @@
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
       <c r="I61" s="43"/>
-      <c r="J61" s="42"/>
+      <c r="J61" s="59"/>
       <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -2009,7 +2160,7 @@
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="43"/>
-      <c r="J62" s="42"/>
+      <c r="J62" s="59"/>
       <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -2022,7 +2173,7 @@
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
       <c r="I63" s="43"/>
-      <c r="J63" s="42"/>
+      <c r="J63" s="59"/>
       <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -2035,7 +2186,7 @@
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
       <c r="I64" s="43"/>
-      <c r="J64" s="42"/>
+      <c r="J64" s="59"/>
       <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -2048,7 +2199,7 @@
       <c r="G65" s="42"/>
       <c r="H65" s="42"/>
       <c r="I65" s="43"/>
-      <c r="J65" s="42"/>
+      <c r="J65" s="59"/>
       <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -2061,7 +2212,7 @@
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
       <c r="I66" s="43"/>
-      <c r="J66" s="42"/>
+      <c r="J66" s="59"/>
       <c r="K66" s="21"/>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -2074,7 +2225,7 @@
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
       <c r="I67" s="43"/>
-      <c r="J67" s="42"/>
+      <c r="J67" s="59"/>
       <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.4">
@@ -2087,29 +2238,29 @@
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
       <c r="I68" s="43"/>
-      <c r="J68" s="42"/>
+      <c r="J68" s="59"/>
       <c r="K68" s="21"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="58"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="18"/>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.45">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="60">
+      <c r="J70" s="53">
         <f>IF(D69=0,0,J69/D69)</f>
         <v>0</v>
       </c>
@@ -2123,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -2364,1110 +2515,1110 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="47"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="40"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="51"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="44"/>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="51"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="51"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="51"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="44"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="51"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="44"/>
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="51"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="51"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="44"/>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="51"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="44"/>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="51"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="51"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="44"/>
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="51"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="44"/>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="51"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="44"/>
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="51"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="44"/>
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="51"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="51"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="44"/>
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="51"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="44"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="51"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="44"/>
       <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="51"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="44"/>
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="44"/>
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="51"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="44"/>
       <c r="P29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="51"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="44"/>
       <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="51"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="44"/>
       <c r="P31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="51"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="44"/>
       <c r="P32" s="8"/>
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="51"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="44"/>
       <c r="P33" s="8"/>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="51"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="44"/>
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="51"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="44"/>
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="51"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="44"/>
       <c r="P36" s="8"/>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="51"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="44"/>
       <c r="P37" s="8"/>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="51"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="44"/>
       <c r="P38" s="8"/>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="51"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="44"/>
       <c r="P39" s="8"/>
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="44"/>
       <c r="P40" s="8"/>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="51"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="44"/>
       <c r="P41" s="8"/>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="51"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="44"/>
       <c r="P42" s="8"/>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="51"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="44"/>
       <c r="P43" s="8"/>
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="51"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="44"/>
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="51"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="44"/>
       <c r="P45" s="8"/>
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="51"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="44"/>
       <c r="P46" s="8"/>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A47" s="48"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="51"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="44"/>
       <c r="P47" s="8"/>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="51"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="44"/>
       <c r="P48" s="8"/>
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="51"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="44"/>
       <c r="P49" s="8"/>
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="51"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="44"/>
       <c r="P50" s="8"/>
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="51"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="44"/>
       <c r="P51" s="8"/>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="51"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="44"/>
       <c r="P52" s="8"/>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="51"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="44"/>
       <c r="P53" s="8"/>
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="51"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="44"/>
       <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="51"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="44"/>
       <c r="P55" s="8"/>
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="51"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="44"/>
       <c r="P56" s="8"/>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="51"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="44"/>
       <c r="P57" s="8"/>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="51"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="44"/>
       <c r="P58" s="8"/>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="51"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="44"/>
       <c r="P59" s="8"/>
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="51"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="44"/>
       <c r="P60" s="8"/>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="51"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="44"/>
       <c r="P61" s="8"/>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="51"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="44"/>
       <c r="P62" s="8"/>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="48"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="51"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="44"/>
       <c r="P63" s="8"/>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="51"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="44"/>
       <c r="P64" s="8"/>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="51"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="44"/>
       <c r="P65" s="8"/>
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="48"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="51"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="44"/>
       <c r="P66" s="8"/>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="51"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="44"/>
       <c r="P67" s="8"/>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="48"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="51"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="44"/>
       <c r="P68" s="8"/>
     </row>
     <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.45">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="54"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="47"/>
       <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.45">
-      <c r="A70" s="61" t="s">
+      <c r="A70" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N70" s="60">
+      <c r="N70" s="53">
         <f>IF(D69=0,0,N69/D69)</f>
         <v>0</v>
       </c>
@@ -3479,12 +3630,271 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906067F4-4E59-45CF-BBE6-2B882A84B5C1}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.7265625" customWidth="1"/>
+    <col min="2" max="9" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.45">
+      <c r="A4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -3494,10 +3904,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E62AE-C607-4AAD-995E-EF6509D78F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B887B4D-5AC9-4E59-88F3-7F6475390A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="36390" windowHeight="16790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="820" windowWidth="38490" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKS-BOMA-B" sheetId="1" r:id="rId1"/>
@@ -381,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.0000;\-0.0000;&quot;-&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +478,13 @@
       <sz val="11"/>
       <name val="HKS Sans Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -842,10 +849,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -899,29 +907,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -931,22 +919,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -976,8 +957,28 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1286,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1394,21 +1395,21 @@
         <v>64</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="40" outlineLevel="1" x14ac:dyDescent="0.35">
@@ -1470,805 +1471,805 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="45"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="45"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="45"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="45"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="45"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="45"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="45"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="45"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="45"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
       <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="45"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="45"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="45"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="45"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="45"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="45"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="45"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="45"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
       <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="45"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="45"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="45"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
       <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="45"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="45"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="45"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
       <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="45"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
       <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="45"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
       <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="45"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="45"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53"/>
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="45"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
       <c r="K39" s="17"/>
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="45"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
       <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="45"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
       <c r="K41" s="17"/>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="45"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
       <c r="K42" s="17"/>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="45"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
       <c r="K43" s="17"/>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="45"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="53"/>
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="45"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="53"/>
       <c r="K45" s="17"/>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="45"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="53"/>
       <c r="K46" s="17"/>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="45"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="53"/>
       <c r="K47" s="17"/>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="45"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="53"/>
       <c r="K48" s="17"/>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="45"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="53"/>
       <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="45"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="45"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="45"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="53"/>
       <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="45"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="53"/>
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="45"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="53"/>
       <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="45"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="53"/>
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="45"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="53"/>
       <c r="K56" s="17"/>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="45"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="53"/>
       <c r="K57" s="17"/>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="45"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="53"/>
       <c r="K58" s="17"/>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="45"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="53"/>
       <c r="K59" s="17"/>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="45"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="53"/>
       <c r="K60" s="17"/>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="45"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="53"/>
       <c r="K61" s="17"/>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="45"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="53"/>
       <c r="K62" s="17"/>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="45"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="53"/>
       <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="45"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="53"/>
       <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="45"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="53"/>
       <c r="K65" s="17"/>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="45"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="53"/>
       <c r="K66" s="17"/>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="45"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="53"/>
       <c r="K67" s="17"/>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="27"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="45"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="53"/>
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.45">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="61"/>
       <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.45">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="39">
+      <c r="J70" s="24">
         <f>IF(D69=0,0,J69/D69)</f>
         <v>0</v>
       </c>
@@ -2283,7 +2284,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="O69" sqref="B69:O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -2374,46 +2375,46 @@
       <c r="A5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="33" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2421,38 +2422,38 @@
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="40" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
@@ -2471,17 +2472,17 @@
       <c r="H7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
@@ -2532,1110 +2533,1110 @@
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="26"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="30"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="30"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="30"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="30"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="30"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="30"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="30"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="30"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="30"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="30"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="30"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="30"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="30"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="30"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="30"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="30"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="30"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="30"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="30"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="30"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="30"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="53"/>
       <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="30"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="53"/>
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="30"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="53"/>
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="30"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="53"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="30"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="53"/>
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="30"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="30"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="53"/>
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="30"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="53"/>
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="30"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="53"/>
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A39" s="27"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="30"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="53"/>
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="30"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="30"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="53"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="30"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="30"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="53"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="30"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="53"/>
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="30"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="30"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="53"/>
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="30"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="53"/>
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="30"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="53"/>
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="30"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="53"/>
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="30"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="53"/>
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="30"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53"/>
       <c r="P51" s="5"/>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="30"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="53"/>
       <c r="P52" s="5"/>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="30"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="53"/>
       <c r="P53" s="5"/>
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="30"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="53"/>
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="30"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="53"/>
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="30"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="30"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53"/>
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="30"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="53"/>
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="30"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="53"/>
       <c r="P59" s="5"/>
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="30"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="53"/>
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="30"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="53"/>
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="30"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="53"/>
       <c r="P62" s="5"/>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="30"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="53"/>
       <c r="P63" s="5"/>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="30"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="53"/>
       <c r="P64" s="5"/>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="30"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="53"/>
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="30"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="53"/>
       <c r="P66" s="5"/>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="30"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="53"/>
       <c r="P67" s="5"/>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="27"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="30"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="53"/>
       <c r="P68" s="5"/>
     </row>
     <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.45">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="33"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="54"/>
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.45">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N70" s="39">
+      <c r="N70" s="24">
         <f>IF(D69=0,0,N69/D69)</f>
         <v>0</v>
       </c>
@@ -3651,21 +3652,22 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I28" sqref="B28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35.7265625" style="8" customWidth="1"/>
-    <col min="2" max="9" width="13.6328125" style="8" customWidth="1"/>
+    <col min="2" max="8" width="13.6328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="28" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3676,7 +3678,7 @@
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -3709,7 +3711,7 @@
       <c r="H4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
@@ -3739,7 +3741,7 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="12"/>
@@ -3780,238 +3782,238 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="59"/>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="59"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="59"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="59"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="59"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="59"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="59"/>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="59"/>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="59"/>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="59"/>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="59"/>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="59"/>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="59"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="59"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="59"/>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -4023,7 +4025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B887B4D-5AC9-4E59-88F3-7F6475390A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FCB4E4-625E-4796-A7C1-5A235DAEDF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="820" windowWidth="38490" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKS-BOMA-B" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -853,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -957,25 +957,30 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1287,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1479,7 +1484,7 @@
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="58"/>
       <c r="K9" s="17"/>
     </row>
@@ -1492,7 +1497,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="53"/>
       <c r="K10" s="17"/>
     </row>
@@ -1505,7 +1510,7 @@
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="53"/>
       <c r="K11" s="17"/>
     </row>
@@ -1518,7 +1523,7 @@
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="53"/>
       <c r="K12" s="17"/>
     </row>
@@ -1531,7 +1536,7 @@
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="53"/>
       <c r="K13" s="17"/>
     </row>
@@ -1544,7 +1549,7 @@
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="53"/>
       <c r="K14" s="17"/>
     </row>
@@ -1557,7 +1562,7 @@
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="53"/>
       <c r="K15" s="17"/>
     </row>
@@ -1570,7 +1575,7 @@
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="53"/>
       <c r="K16" s="17"/>
     </row>
@@ -1583,7 +1588,7 @@
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="53"/>
       <c r="K17" s="17"/>
     </row>
@@ -1596,7 +1601,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="53"/>
       <c r="K18" s="17"/>
     </row>
@@ -1609,7 +1614,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="53"/>
       <c r="K19" s="17"/>
     </row>
@@ -1622,7 +1627,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="53"/>
       <c r="K20" s="17"/>
     </row>
@@ -1635,7 +1640,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="53"/>
       <c r="K21" s="17"/>
     </row>
@@ -1648,7 +1653,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="53"/>
       <c r="K22" s="17"/>
     </row>
@@ -1661,7 +1666,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="53"/>
       <c r="K23" s="17"/>
     </row>
@@ -1674,7 +1679,7 @@
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="53"/>
       <c r="K24" s="17"/>
     </row>
@@ -1687,7 +1692,7 @@
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="53"/>
       <c r="K25" s="17"/>
     </row>
@@ -1700,7 +1705,7 @@
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="53"/>
       <c r="K26" s="17"/>
     </row>
@@ -1713,7 +1718,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="53"/>
       <c r="K27" s="17"/>
     </row>
@@ -1726,7 +1731,7 @@
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="53"/>
       <c r="K28" s="17"/>
     </row>
@@ -1739,7 +1744,7 @@
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="53"/>
       <c r="K29" s="17"/>
     </row>
@@ -1752,7 +1757,7 @@
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="53"/>
       <c r="K30" s="17"/>
     </row>
@@ -1765,7 +1770,7 @@
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="53"/>
       <c r="K31" s="17"/>
     </row>
@@ -1778,7 +1783,7 @@
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="53"/>
       <c r="K32" s="17"/>
     </row>
@@ -1791,7 +1796,7 @@
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="53"/>
       <c r="K33" s="17"/>
     </row>
@@ -1804,7 +1809,7 @@
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="53"/>
       <c r="K34" s="17"/>
     </row>
@@ -1817,7 +1822,7 @@
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="53"/>
       <c r="K35" s="17"/>
     </row>
@@ -1830,7 +1835,7 @@
       <c r="F36" s="52"/>
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
+      <c r="I36" s="63"/>
       <c r="J36" s="53"/>
       <c r="K36" s="17"/>
     </row>
@@ -1843,7 +1848,7 @@
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="53"/>
       <c r="K37" s="17"/>
     </row>
@@ -1856,7 +1861,7 @@
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
+      <c r="I38" s="63"/>
       <c r="J38" s="53"/>
       <c r="K38" s="17"/>
     </row>
@@ -1869,7 +1874,7 @@
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="53"/>
       <c r="K39" s="17"/>
     </row>
@@ -1882,7 +1887,7 @@
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="I40" s="63"/>
       <c r="J40" s="53"/>
       <c r="K40" s="17"/>
     </row>
@@ -1895,7 +1900,7 @@
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="I41" s="63"/>
       <c r="J41" s="53"/>
       <c r="K41" s="17"/>
     </row>
@@ -1908,7 +1913,7 @@
       <c r="F42" s="52"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="I42" s="63"/>
       <c r="J42" s="53"/>
       <c r="K42" s="17"/>
     </row>
@@ -1921,7 +1926,7 @@
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="53"/>
       <c r="K43" s="17"/>
     </row>
@@ -1934,7 +1939,7 @@
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="I44" s="63"/>
       <c r="J44" s="53"/>
       <c r="K44" s="17"/>
     </row>
@@ -1947,7 +1952,7 @@
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="53"/>
       <c r="K45" s="17"/>
     </row>
@@ -1960,7 +1965,7 @@
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
+      <c r="I46" s="63"/>
       <c r="J46" s="53"/>
       <c r="K46" s="17"/>
     </row>
@@ -1973,7 +1978,7 @@
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="53"/>
       <c r="K47" s="17"/>
     </row>
@@ -1986,7 +1991,7 @@
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
+      <c r="I48" s="63"/>
       <c r="J48" s="53"/>
       <c r="K48" s="17"/>
     </row>
@@ -1999,7 +2004,7 @@
       <c r="F49" s="52"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
+      <c r="I49" s="63"/>
       <c r="J49" s="53"/>
       <c r="K49" s="17"/>
     </row>
@@ -2012,7 +2017,7 @@
       <c r="F50" s="52"/>
       <c r="G50" s="52"/>
       <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
+      <c r="I50" s="63"/>
       <c r="J50" s="53"/>
       <c r="K50" s="17"/>
     </row>
@@ -2025,7 +2030,7 @@
       <c r="F51" s="52"/>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="53"/>
       <c r="K51" s="17"/>
     </row>
@@ -2038,7 +2043,7 @@
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
+      <c r="I52" s="63"/>
       <c r="J52" s="53"/>
       <c r="K52" s="17"/>
     </row>
@@ -2051,7 +2056,7 @@
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="53"/>
       <c r="K53" s="17"/>
     </row>
@@ -2064,7 +2069,7 @@
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
+      <c r="I54" s="63"/>
       <c r="J54" s="53"/>
       <c r="K54" s="17"/>
     </row>
@@ -2077,7 +2082,7 @@
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
+      <c r="I55" s="63"/>
       <c r="J55" s="53"/>
       <c r="K55" s="17"/>
     </row>
@@ -2090,7 +2095,7 @@
       <c r="F56" s="52"/>
       <c r="G56" s="52"/>
       <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
+      <c r="I56" s="63"/>
       <c r="J56" s="53"/>
       <c r="K56" s="17"/>
     </row>
@@ -2103,7 +2108,7 @@
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
       <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
+      <c r="I57" s="63"/>
       <c r="J57" s="53"/>
       <c r="K57" s="17"/>
     </row>
@@ -2116,7 +2121,7 @@
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
       <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
+      <c r="I58" s="63"/>
       <c r="J58" s="53"/>
       <c r="K58" s="17"/>
     </row>
@@ -2129,7 +2134,7 @@
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
       <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
+      <c r="I59" s="63"/>
       <c r="J59" s="53"/>
       <c r="K59" s="17"/>
     </row>
@@ -2142,7 +2147,7 @@
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
+      <c r="I60" s="63"/>
       <c r="J60" s="53"/>
       <c r="K60" s="17"/>
     </row>
@@ -2155,7 +2160,7 @@
       <c r="F61" s="52"/>
       <c r="G61" s="52"/>
       <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
+      <c r="I61" s="63"/>
       <c r="J61" s="53"/>
       <c r="K61" s="17"/>
     </row>
@@ -2168,7 +2173,7 @@
       <c r="F62" s="52"/>
       <c r="G62" s="52"/>
       <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="I62" s="63"/>
       <c r="J62" s="53"/>
       <c r="K62" s="17"/>
     </row>
@@ -2181,7 +2186,7 @@
       <c r="F63" s="52"/>
       <c r="G63" s="52"/>
       <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
+      <c r="I63" s="63"/>
       <c r="J63" s="53"/>
       <c r="K63" s="17"/>
     </row>
@@ -2194,7 +2199,7 @@
       <c r="F64" s="52"/>
       <c r="G64" s="52"/>
       <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
+      <c r="I64" s="63"/>
       <c r="J64" s="53"/>
       <c r="K64" s="17"/>
     </row>
@@ -2207,7 +2212,7 @@
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
       <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="53"/>
       <c r="K65" s="17"/>
     </row>
@@ -2220,7 +2225,7 @@
       <c r="F66" s="52"/>
       <c r="G66" s="52"/>
       <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+      <c r="I66" s="63"/>
       <c r="J66" s="53"/>
       <c r="K66" s="17"/>
     </row>
@@ -2233,7 +2238,7 @@
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
+      <c r="I67" s="63"/>
       <c r="J67" s="53"/>
       <c r="K67" s="17"/>
     </row>
@@ -2246,7 +2251,7 @@
       <c r="F68" s="52"/>
       <c r="G68" s="52"/>
       <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
+      <c r="I68" s="63"/>
       <c r="J68" s="53"/>
       <c r="K68" s="17"/>
     </row>
@@ -2261,7 +2266,7 @@
       <c r="F69" s="59"/>
       <c r="G69" s="59"/>
       <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
+      <c r="I69" s="64"/>
       <c r="J69" s="61"/>
       <c r="K69" s="14"/>
     </row>
@@ -2283,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O69" sqref="B69:O69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -2543,9 +2548,9 @@
       <c r="H9" s="49"/>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="M9" s="65"/>
       <c r="N9" s="49"/>
       <c r="O9" s="50"/>
       <c r="P9" s="5"/>
@@ -2561,9 +2566,9 @@
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="52"/>
       <c r="O10" s="53"/>
       <c r="P10" s="5"/>
@@ -2579,9 +2584,9 @@
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="52"/>
       <c r="O11" s="53"/>
       <c r="P11" s="5"/>
@@ -2597,9 +2602,9 @@
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="52"/>
       <c r="O12" s="53"/>
       <c r="P12" s="5"/>
@@ -2615,9 +2620,9 @@
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="52"/>
       <c r="O13" s="53"/>
       <c r="P13" s="5"/>
@@ -2633,9 +2638,9 @@
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="52"/>
       <c r="O14" s="53"/>
       <c r="P14" s="5"/>
@@ -2651,9 +2656,9 @@
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="52"/>
       <c r="O15" s="53"/>
       <c r="P15" s="5"/>
@@ -2669,9 +2674,9 @@
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="52"/>
       <c r="O16" s="53"/>
       <c r="P16" s="5"/>
@@ -2687,9 +2692,9 @@
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="52"/>
       <c r="O17" s="53"/>
       <c r="P17" s="5"/>
@@ -2705,9 +2710,9 @@
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="52"/>
       <c r="O18" s="53"/>
       <c r="P18" s="5"/>
@@ -2723,9 +2728,9 @@
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="5"/>
@@ -2741,9 +2746,9 @@
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="52"/>
       <c r="O20" s="53"/>
       <c r="P20" s="5"/>
@@ -2759,9 +2764,9 @@
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="52"/>
       <c r="O21" s="53"/>
       <c r="P21" s="5"/>
@@ -2777,9 +2782,9 @@
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="52"/>
       <c r="O22" s="53"/>
       <c r="P22" s="5"/>
@@ -2795,9 +2800,9 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="52"/>
       <c r="O23" s="53"/>
       <c r="P23" s="5"/>
@@ -2813,9 +2818,9 @@
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="52"/>
       <c r="O24" s="53"/>
       <c r="P24" s="5"/>
@@ -2831,9 +2836,9 @@
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="52"/>
       <c r="O25" s="53"/>
       <c r="P25" s="5"/>
@@ -2849,9 +2854,9 @@
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
+      <c r="M26" s="63"/>
       <c r="N26" s="52"/>
       <c r="O26" s="53"/>
       <c r="P26" s="5"/>
@@ -2867,9 +2872,9 @@
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="52"/>
       <c r="O27" s="53"/>
       <c r="P27" s="5"/>
@@ -2885,9 +2890,9 @@
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="52"/>
       <c r="O28" s="53"/>
       <c r="P28" s="5"/>
@@ -2903,9 +2908,9 @@
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
+      <c r="K29" s="63"/>
       <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="52"/>
       <c r="O29" s="53"/>
       <c r="P29" s="5"/>
@@ -2921,9 +2926,9 @@
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="52"/>
       <c r="O30" s="53"/>
       <c r="P30" s="5"/>
@@ -2939,9 +2944,9 @@
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="52"/>
       <c r="O31" s="53"/>
       <c r="P31" s="5"/>
@@ -2957,9 +2962,9 @@
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="52"/>
       <c r="O32" s="53"/>
       <c r="P32" s="5"/>
@@ -2975,9 +2980,9 @@
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="52"/>
       <c r="O33" s="53"/>
       <c r="P33" s="5"/>
@@ -2993,9 +2998,9 @@
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="K34" s="63"/>
       <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="52"/>
       <c r="O34" s="53"/>
       <c r="P34" s="5"/>
@@ -3011,9 +3016,9 @@
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
+      <c r="K35" s="63"/>
       <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
+      <c r="M35" s="63"/>
       <c r="N35" s="52"/>
       <c r="O35" s="53"/>
       <c r="P35" s="5"/>
@@ -3029,9 +3034,9 @@
       <c r="H36" s="52"/>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
+      <c r="K36" s="63"/>
       <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="52"/>
       <c r="O36" s="53"/>
       <c r="P36" s="5"/>
@@ -3047,9 +3052,9 @@
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="52"/>
       <c r="O37" s="53"/>
       <c r="P37" s="5"/>
@@ -3065,9 +3070,9 @@
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
+      <c r="K38" s="63"/>
       <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="52"/>
       <c r="O38" s="53"/>
       <c r="P38" s="5"/>
@@ -3083,9 +3088,9 @@
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
+      <c r="K39" s="63"/>
       <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
+      <c r="M39" s="63"/>
       <c r="N39" s="52"/>
       <c r="O39" s="53"/>
       <c r="P39" s="5"/>
@@ -3101,9 +3106,9 @@
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
+      <c r="K40" s="63"/>
       <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
+      <c r="M40" s="63"/>
       <c r="N40" s="52"/>
       <c r="O40" s="53"/>
       <c r="P40" s="5"/>
@@ -3119,9 +3124,9 @@
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="K41" s="63"/>
       <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="52"/>
       <c r="O41" s="53"/>
       <c r="P41" s="5"/>
@@ -3137,9 +3142,9 @@
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="52"/>
       <c r="O42" s="53"/>
       <c r="P42" s="5"/>
@@ -3155,9 +3160,9 @@
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
+      <c r="M43" s="63"/>
       <c r="N43" s="52"/>
       <c r="O43" s="53"/>
       <c r="P43" s="5"/>
@@ -3173,9 +3178,9 @@
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
+      <c r="K44" s="63"/>
       <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
+      <c r="M44" s="63"/>
       <c r="N44" s="52"/>
       <c r="O44" s="53"/>
       <c r="P44" s="5"/>
@@ -3191,9 +3196,9 @@
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
+      <c r="M45" s="63"/>
       <c r="N45" s="52"/>
       <c r="O45" s="53"/>
       <c r="P45" s="5"/>
@@ -3209,9 +3214,9 @@
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
+      <c r="M46" s="63"/>
       <c r="N46" s="52"/>
       <c r="O46" s="53"/>
       <c r="P46" s="5"/>
@@ -3227,9 +3232,9 @@
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
+      <c r="M47" s="63"/>
       <c r="N47" s="52"/>
       <c r="O47" s="53"/>
       <c r="P47" s="5"/>
@@ -3245,9 +3250,9 @@
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
       <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
+      <c r="K48" s="63"/>
       <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="52"/>
       <c r="O48" s="53"/>
       <c r="P48" s="5"/>
@@ -3263,9 +3268,9 @@
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
+      <c r="K49" s="63"/>
       <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
+      <c r="M49" s="63"/>
       <c r="N49" s="52"/>
       <c r="O49" s="53"/>
       <c r="P49" s="5"/>
@@ -3281,9 +3286,9 @@
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
+      <c r="K50" s="63"/>
       <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
+      <c r="M50" s="63"/>
       <c r="N50" s="52"/>
       <c r="O50" s="53"/>
       <c r="P50" s="5"/>
@@ -3299,9 +3304,9 @@
       <c r="H51" s="52"/>
       <c r="I51" s="52"/>
       <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
+      <c r="K51" s="63"/>
       <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="52"/>
       <c r="O51" s="53"/>
       <c r="P51" s="5"/>
@@ -3317,9 +3322,9 @@
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
+      <c r="M52" s="63"/>
       <c r="N52" s="52"/>
       <c r="O52" s="53"/>
       <c r="P52" s="5"/>
@@ -3335,9 +3340,9 @@
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
+      <c r="K53" s="63"/>
       <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="52"/>
       <c r="O53" s="53"/>
       <c r="P53" s="5"/>
@@ -3353,9 +3358,9 @@
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
+      <c r="K54" s="63"/>
       <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
+      <c r="M54" s="63"/>
       <c r="N54" s="52"/>
       <c r="O54" s="53"/>
       <c r="P54" s="5"/>
@@ -3371,9 +3376,9 @@
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
+      <c r="K55" s="63"/>
       <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
+      <c r="M55" s="63"/>
       <c r="N55" s="52"/>
       <c r="O55" s="53"/>
       <c r="P55" s="5"/>
@@ -3389,9 +3394,9 @@
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
+      <c r="K56" s="63"/>
       <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
+      <c r="M56" s="63"/>
       <c r="N56" s="52"/>
       <c r="O56" s="53"/>
       <c r="P56" s="5"/>
@@ -3407,9 +3412,9 @@
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
+      <c r="K57" s="63"/>
       <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
+      <c r="M57" s="63"/>
       <c r="N57" s="52"/>
       <c r="O57" s="53"/>
       <c r="P57" s="5"/>
@@ -3425,9 +3430,9 @@
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
+      <c r="K58" s="63"/>
       <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
+      <c r="M58" s="63"/>
       <c r="N58" s="52"/>
       <c r="O58" s="53"/>
       <c r="P58" s="5"/>
@@ -3443,9 +3448,9 @@
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
+      <c r="K59" s="63"/>
       <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
+      <c r="M59" s="63"/>
       <c r="N59" s="52"/>
       <c r="O59" s="53"/>
       <c r="P59" s="5"/>
@@ -3461,9 +3466,9 @@
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
       <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
+      <c r="K60" s="63"/>
       <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="52"/>
       <c r="O60" s="53"/>
       <c r="P60" s="5"/>
@@ -3479,9 +3484,9 @@
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
+      <c r="K61" s="63"/>
       <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
+      <c r="M61" s="63"/>
       <c r="N61" s="52"/>
       <c r="O61" s="53"/>
       <c r="P61" s="5"/>
@@ -3497,9 +3502,9 @@
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
+      <c r="K62" s="63"/>
       <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
+      <c r="M62" s="63"/>
       <c r="N62" s="52"/>
       <c r="O62" s="53"/>
       <c r="P62" s="5"/>
@@ -3515,9 +3520,9 @@
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
+      <c r="K63" s="63"/>
       <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
+      <c r="M63" s="63"/>
       <c r="N63" s="52"/>
       <c r="O63" s="53"/>
       <c r="P63" s="5"/>
@@ -3533,9 +3538,9 @@
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
+      <c r="K64" s="63"/>
       <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
+      <c r="M64" s="63"/>
       <c r="N64" s="52"/>
       <c r="O64" s="53"/>
       <c r="P64" s="5"/>
@@ -3551,9 +3556,9 @@
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
+      <c r="K65" s="63"/>
       <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
+      <c r="M65" s="63"/>
       <c r="N65" s="52"/>
       <c r="O65" s="53"/>
       <c r="P65" s="5"/>
@@ -3569,9 +3574,9 @@
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
+      <c r="K66" s="63"/>
       <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
+      <c r="M66" s="63"/>
       <c r="N66" s="52"/>
       <c r="O66" s="53"/>
       <c r="P66" s="5"/>
@@ -3587,9 +3592,9 @@
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
       <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
+      <c r="K67" s="63"/>
       <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
+      <c r="M67" s="63"/>
       <c r="N67" s="52"/>
       <c r="O67" s="53"/>
       <c r="P67" s="5"/>
@@ -3605,9 +3610,9 @@
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
       <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
+      <c r="K68" s="63"/>
       <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
+      <c r="M68" s="63"/>
       <c r="N68" s="52"/>
       <c r="O68" s="53"/>
       <c r="P68" s="5"/>
@@ -3625,9 +3630,9 @@
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
       <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
+      <c r="K69" s="66"/>
       <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
+      <c r="M69" s="66"/>
       <c r="N69" s="55"/>
       <c r="O69" s="54"/>
       <c r="P69" s="6"/>

--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FCB4E4-625E-4796-A7C1-5A235DAEDF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED7DA6-BFD6-4F2D-832D-B6B03C017A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKS-BOMA-B" sheetId="1" r:id="rId1"/>
     <sheet name="HKS-BOMA-A" sheetId="2" r:id="rId2"/>
     <sheet name="NON-BOMA Areas" sheetId="4" r:id="rId3"/>
     <sheet name="Revit Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Revit Data Pivot Table" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -94,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>Project Name</t>
   </si>
@@ -374,6 +378,21 @@
   </si>
   <si>
     <t>NON BOMA Areas</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of Area</t>
   </si>
 </sst>
 </file>
@@ -853,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -976,17 +995,47 @@
     <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD3D3D3"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1003,6 +1052,123 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Crist, Jason" refreshedDate="46021.432024421294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BEF587C3-EA25-4CE0-B1A3-6E4F657CC547}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="RevitData"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="FloorMap" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Area" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="NON BOMA Areas" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Area Scheme Name" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB149E4-6E3F-4826-AC98-316B4161699A}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Area" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9950802-17CE-4A05-B5FB-28AEA7C758FD}" name="RevitData" displayName="RevitData" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E2" xr:uid="{F9950802-17CE-4A05-B5FB-28AEA7C758FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6974131A-0843-49BE-8AB4-5A2250F2744A}" name="FloorMap"/>
+    <tableColumn id="2" xr3:uid="{A03E2BFF-FD3D-42F7-AD61-2399BF586393}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{A6A8CD54-26A0-4452-9481-1583B19C327A}" name="Area"/>
+    <tableColumn id="4" xr3:uid="{32350FEF-D4C6-4F0B-B699-6CF1E7D8ABFC}" name="NON BOMA Areas"/>
+    <tableColumn id="5" xr3:uid="{B9455028-F374-4A3F-B6CB-C921AA7178F7}" name="Area Scheme Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,7 +1561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -1417,7 +1583,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="40" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="40" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
@@ -1442,7 +1608,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="45.5" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
@@ -2288,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -2423,7 +2589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -2454,7 +2620,7 @@
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
     </row>
-    <row r="7" spans="1:16" ht="40" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="40" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
@@ -2489,7 +2655,7 @@
       <c r="N7" s="34"/>
       <c r="O7" s="34"/>
     </row>
-    <row r="8" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="45" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
@@ -4030,17 +4196,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4062,5 +4228,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D33CAD9-E273-432B-BC9E-F98F4EBC3E16}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED7DA6-BFD6-4F2D-832D-B6B03C017A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209DB1A-EF91-4A58-88E1-FFB96F34DA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,8 @@
     <sheet name="HKS-BOMA-A" sheetId="2" r:id="rId2"/>
     <sheet name="NON-BOMA Areas" sheetId="4" r:id="rId3"/>
     <sheet name="Revit Data" sheetId="3" r:id="rId4"/>
-    <sheet name="Revit Data Pivot Table" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -98,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>Project Name</t>
   </si>
@@ -378,21 +374,6 @@
   </si>
   <si>
     <t>NON BOMA Areas</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Count of Area</t>
   </si>
 </sst>
 </file>
@@ -872,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1000,11 +981,6 @@
     <xf numFmtId="43" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1052,109 +1028,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Crist, Jason" refreshedDate="46021.432024421294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{BEF587C3-EA25-4CE0-B1A3-6E4F657CC547}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="RevitData"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="FloorMap" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Area" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="NON BOMA Areas" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Area Scheme Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB149E4-6E3F-4826-AC98-316B4161699A}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Area" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4197,7 +4070,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4232,57 +4105,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D33CAD9-E273-432B-BC9E-F98F4EBC3E16}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209DB1A-EF91-4A58-88E1-FFB96F34DA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE559CB-50F3-4DCF-AEC2-3DB444AC7031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1031,8 +1031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9950802-17CE-4A05-B5FB-28AEA7C758FD}" name="RevitData" displayName="RevitData" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E2" xr:uid="{F9950802-17CE-4A05-B5FB-28AEA7C758FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9950802-17CE-4A05-B5FB-28AEA7C758FD}" name="RevitData" displayName="RevitData" ref="A1:E1000" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E1000" xr:uid="{F9950802-17CE-4A05-B5FB-28AEA7C758FD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6974131A-0843-49BE-8AB4-5A2250F2744A}" name="FloorMap"/>
     <tableColumn id="2" xr3:uid="{A03E2BFF-FD3D-42F7-AD61-2399BF586393}" name="Name"/>

--- a/BOMA_Template.xlsx
+++ b/BOMA_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7007C0CD-49B9-48E2-8F4C-48A3E7E146D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF39D10-9DFA-44AB-9233-56194A9CB144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40230" yWindow="1360" windowWidth="36390" windowHeight="16790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKS-BOMA-B" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -998,7 +998,6 @@
     <xf numFmtId="164" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1024,6 +1023,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1519,798 +1521,798 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="57"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="52"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="52"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="52"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="52"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="52"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="52"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="52"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="52"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="52"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="52"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="52"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="52"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="52"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="52"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="52"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="52"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="52"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="52"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="52"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="52"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="52"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="52"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="52"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="52"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="52"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="52"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="52"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="52"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="52"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="52"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="16"/>
     </row>
     <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="52"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="16"/>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="52"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="52"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="52"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="52"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="16"/>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="52"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="16"/>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="52"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="52"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="16"/>
     </row>
     <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="52"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="16"/>
     </row>
     <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="52"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="16"/>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="52"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="16"/>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A51" s="50"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="52"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="16"/>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="52"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="16"/>
     </row>
     <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="52"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="16"/>
     </row>
     <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="52"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="16"/>
     </row>
     <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="52"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="16"/>
     </row>
     <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A56" s="50"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="52"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A57" s="50"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="52"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="16"/>
     </row>
     <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="50"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="52"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="16"/>
     </row>
     <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="50"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="52"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="16"/>
     </row>
     <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="50"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="52"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="52"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="52"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="16"/>
     </row>
     <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="52"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="16"/>
     </row>
     <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="52"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="16"/>
     </row>
     <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="50"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="52"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="16"/>
     </row>
     <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="52"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="16"/>
     </row>
     <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="50"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="52"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="16"/>
     </row>
     <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="52"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="16"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.45">
       <c r="A69" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="60"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="59"/>
       <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.45">
@@ -2331,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -2591,1093 +2593,1093 @@
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
-      <c r="K9" s="64"/>
+      <c r="K9" s="63"/>
       <c r="L9" s="48"/>
-      <c r="M9" s="64"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="48"/>
-      <c r="O9" s="49"/>
+      <c r="O9" s="68"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="69"/>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="69"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="69"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="69"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="69"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="69"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="69"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="69"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="69"/>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="69"/>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="69"/>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="69"/>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="69"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="69"/>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="52"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="69"/>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="69"/>
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="52"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="69"/>
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="52"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="69"/>
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="52"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="69"/>
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="52"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="69"/>
       <c r="P34" s="4"/>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="52"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="69"/>
       <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="52"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="69"/>
       <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="52"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="69"/>
       <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="52"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="69"/>
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="52"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="69"/>
       <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="52"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="69"/>
       <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="52"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="69"/>
       <c r="P41" s="4"/>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="52"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="69"/>
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="52"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="69"/>
       <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="52"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="69"/>
       <c r="P44" s="4"/>
     </row>
     <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="52"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="69"/>
       <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="52"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="69"/>
       <c r="P46" s="4"/>
     </row>
     <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="52"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="69"/>
       <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="69"/>
       <c r="P48" s="4"/>
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="52"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="69"/>
       <c r="P49" s="4"/>
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="52"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="69"/>
       <c r="P50" s="4"/>
     </row>
     <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A51" s="50"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="52"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="69"/>
       <c r="P51" s="4"/>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="52"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="69"/>
       <c r="P52" s="4"/>
     </row>
     <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="52"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="69"/>
       <c r="P53" s="4"/>
     </row>
     <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="52"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="69"/>
       <c r="P54" s="4"/>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="52"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="69"/>
       <c r="P55" s="4"/>
     </row>
     <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A56" s="50"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="52"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="69"/>
       <c r="P56" s="4"/>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A57" s="50"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="52"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="69"/>
       <c r="P57" s="4"/>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A58" s="50"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="52"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="69"/>
       <c r="P58" s="4"/>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A59" s="50"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="51"/>
-      <c r="O59" s="52"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="69"/>
       <c r="P59" s="4"/>
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="50"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="52"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="69"/>
       <c r="P60" s="4"/>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="52"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="69"/>
       <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="52"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="69"/>
       <c r="P62" s="4"/>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="52"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="69"/>
       <c r="P63" s="4"/>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="52"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="69"/>
       <c r="P64" s="4"/>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A65" s="50"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="52"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="69"/>
       <c r="P65" s="4"/>
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="51"/>
-      <c r="O66" s="52"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="69"/>
       <c r="P66" s="4"/>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A67" s="50"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="52"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="69"/>
       <c r="P67" s="4"/>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.4">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="52"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="69"/>
       <c r="P68" s="4"/>
     </row>
     <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.45">
       <c r="A69" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="53"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="70"/>
       <c r="P69" s="5"/>
     </row>
     <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.45">
@@ -4073,7 +4075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4083,19 +4085,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>59</v>
       </c>
     </row>
